--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Wollaston_Hutton/Frederick_Wollaston_Hutton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Wollaston_Hutton/Frederick_Wollaston_Hutton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Wollaston Hutton est un ichtyologiste britannique, né le 16 novembre 1836 à Gate Burton, Lincolnshire et mort le 29 octobre 1905.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’H.F. Hutton. Il commence ses études à Southwell puis à l’Académie navale de Gosport (Hampshire). Il étudie les sciences appliquées au King's College de Londres avant de devenir officier dans le corps des Royal Welch Fusiliers (fusillers écossais du roi) et prend part à la guerre de Crimée et la révolte des Cipayes.
 Hutton revient en Angleterre en 1860 et étudie la géologie à Académie royale militaire de Sandhurst et est élu membre de la Société royale de géologie la même année. En 1861, il fait le compte rendu de l’ouvrage de Charles Darwin (1809-1882), The Origin of Species dans la publication de la Société, The Geologist. Toute sa vie, Hutton fut partisan convaincu de la théorie darwinienne de la sélection naturelle, Darwin lui-même lui enverra une lettre de remerciement.
